--- a/data/trans_orig/P33B_R4-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R4-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>57876</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44494</v>
+        <v>44912</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75412</v>
+        <v>73263</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1051116689958443</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08080739211933159</v>
+        <v>0.08156710998923067</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1369596171768833</v>
+        <v>0.133056222790825</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -762,19 +762,19 @@
         <v>88287</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>73366</v>
+        <v>75135</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>105951</v>
+        <v>106167</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1807638885475491</v>
+        <v>0.180763888547549</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1502131995430003</v>
+        <v>0.1538356889025314</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2169303139181036</v>
+        <v>0.217373009228507</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>181</v>
@@ -783,19 +783,19 @@
         <v>146163</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>126105</v>
+        <v>127485</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>168156</v>
+        <v>168058</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1406731039118807</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1213680679740507</v>
+        <v>0.1226965035208844</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1618392690890841</v>
+        <v>0.1617448527946506</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>492742</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>475206</v>
+        <v>477355</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>506124</v>
+        <v>505706</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8948883310041557</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8630403828231165</v>
+        <v>0.8669437772091754</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9191926078806684</v>
+        <v>0.9184328900107698</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>566</v>
@@ -833,19 +833,19 @@
         <v>400124</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>382460</v>
+        <v>382244</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>415045</v>
+        <v>413276</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8192361114524509</v>
+        <v>0.8192361114524508</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7830696860818962</v>
+        <v>0.7826269907714928</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8497868004569995</v>
+        <v>0.8461643110974686</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1059</v>
@@ -854,19 +854,19 @@
         <v>892866</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>870873</v>
+        <v>870971</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>912924</v>
+        <v>911544</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8593268960881194</v>
+        <v>0.8593268960881193</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8381607309109159</v>
+        <v>0.8382551472053492</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.878631932025949</v>
+        <v>0.8773034964791151</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>58194</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45382</v>
+        <v>45398</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75871</v>
+        <v>74177</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1206790617453535</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09411018841200951</v>
+        <v>0.09414313467005629</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1573346565652869</v>
+        <v>0.1538222177291106</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>116</v>
@@ -979,19 +979,19 @@
         <v>84132</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>68920</v>
+        <v>71129</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>98011</v>
+        <v>99308</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.19882597664016</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1628760839245663</v>
+        <v>0.1680964744407145</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.23162728082647</v>
+        <v>0.2346922276044192</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>178</v>
@@ -1000,19 +1000,19 @@
         <v>142326</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>122923</v>
+        <v>122200</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>162487</v>
+        <v>164240</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1572027044889749</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1357709957490973</v>
+        <v>0.1349729494046353</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1794705846658414</v>
+        <v>0.1814071238355485</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>424030</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>406353</v>
+        <v>408047</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>436842</v>
+        <v>436826</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8793209382546466</v>
+        <v>0.8793209382546464</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.842665343434713</v>
+        <v>0.8461777822708894</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9058898115879904</v>
+        <v>0.9058568653299436</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>474</v>
@@ -1050,19 +1050,19 @@
         <v>339011</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>325132</v>
+        <v>323835</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>354223</v>
+        <v>352014</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8011740233598399</v>
+        <v>0.8011740233598398</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7683727191735301</v>
+        <v>0.7653077723955809</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8371239160754338</v>
+        <v>0.8319035255592855</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>892</v>
@@ -1071,19 +1071,19 @@
         <v>763041</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>742880</v>
+        <v>741127</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>782444</v>
+        <v>783167</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.842797295511025</v>
+        <v>0.8427972955110252</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8205294153341586</v>
+        <v>0.8185928761644515</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8642290042509024</v>
+        <v>0.8650270505953648</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>86667</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70298</v>
+        <v>70662</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106284</v>
+        <v>105272</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1841504955498528</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1493682569518436</v>
+        <v>0.1501419065801634</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2258322793449258</v>
+        <v>0.2236813434039764</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -1196,19 +1196,19 @@
         <v>47424</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39073</v>
+        <v>38107</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57668</v>
+        <v>57178</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2529315029293057</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2083952078205351</v>
+        <v>0.203238218352865</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3075658706775868</v>
+        <v>0.3049533155153464</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>167</v>
@@ -1217,19 +1217,19 @@
         <v>134091</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>114706</v>
+        <v>114305</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>156072</v>
+        <v>155931</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.203745776121889</v>
+        <v>0.2037457761218891</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1742901846390349</v>
+        <v>0.1736809864975586</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2371440151676532</v>
+        <v>0.2369309355916958</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>383966</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>364349</v>
+        <v>365361</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>400335</v>
+        <v>399971</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8158495044501473</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7741677206550743</v>
+        <v>0.7763186565960234</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8506317430481565</v>
+        <v>0.8498580934198365</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>215</v>
@@ -1267,19 +1267,19 @@
         <v>140073</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>129829</v>
+        <v>130319</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>148424</v>
+        <v>149390</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7470684970706942</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6924341293224134</v>
+        <v>0.6950466844846535</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7916047921794649</v>
+        <v>0.7967617816471345</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>609</v>
@@ -1288,19 +1288,19 @@
         <v>524039</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>502058</v>
+        <v>502199</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>543424</v>
+        <v>543825</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7962542238781108</v>
+        <v>0.796254223878111</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7628559848323461</v>
+        <v>0.7630690644083047</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8257098153609652</v>
+        <v>0.8263190135024417</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>175887</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>152993</v>
+        <v>152396</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>201261</v>
+        <v>200951</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.155398421263519</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.135171545477017</v>
+        <v>0.1346441915641618</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1778174512936804</v>
+        <v>0.177543428760968</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>264</v>
@@ -1413,19 +1413,19 @@
         <v>183720</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>162379</v>
+        <v>163964</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>208270</v>
+        <v>208069</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2134304283784627</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1886381683701819</v>
+        <v>0.1904794075245277</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2419502491104106</v>
+        <v>0.2417168306587446</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>461</v>
@@ -1434,19 +1434,19 @@
         <v>359607</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>328952</v>
+        <v>327342</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>393162</v>
+        <v>390009</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1804675546564617</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.165083638025261</v>
+        <v>0.1642755655876653</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1973071226459826</v>
+        <v>0.1957248081526921</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>955956</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>930582</v>
+        <v>930892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>978850</v>
+        <v>979447</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8446015787364809</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8221825487063197</v>
+        <v>0.8224565712390319</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8648284545229832</v>
+        <v>0.8653558084358381</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>965</v>
@@ -1484,19 +1484,19 @@
         <v>677076</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>652526</v>
+        <v>652727</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>698417</v>
+        <v>696832</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7865695716215373</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7580497508895893</v>
+        <v>0.7582831693412555</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8113618316298181</v>
+        <v>0.8095205924754725</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1886</v>
@@ -1505,19 +1505,19 @@
         <v>1633032</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1599477</v>
+        <v>1602630</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1663687</v>
+        <v>1665297</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8195324453435381</v>
+        <v>0.8195324453435383</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8026928773540174</v>
+        <v>0.8042751918473077</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8349163619747391</v>
+        <v>0.8357244344123345</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>77340</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>60589</v>
+        <v>61120</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>97791</v>
+        <v>94839</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1364313702617497</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1068820068352316</v>
+        <v>0.1078171574828427</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1725074303344881</v>
+        <v>0.1672995970179184</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>365</v>
@@ -1630,19 +1630,19 @@
         <v>229293</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>207827</v>
+        <v>207182</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>249706</v>
+        <v>250557</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2762149078242118</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2503556937246585</v>
+        <v>0.2495781161160684</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3008040837655755</v>
+        <v>0.301829514841646</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>447</v>
@@ -1651,19 +1651,19 @@
         <v>306634</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>279676</v>
+        <v>277559</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>337278</v>
+        <v>333940</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2194931998882295</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2001964654428935</v>
+        <v>0.1986809204637934</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2414288388202853</v>
+        <v>0.2390393626068328</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>489542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>469091</v>
+        <v>472043</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>506293</v>
+        <v>505762</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8635686297382502</v>
+        <v>0.8635686297382501</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8274925696655119</v>
+        <v>0.8327004029820816</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8931179931647683</v>
+        <v>0.8921828425171574</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>924</v>
@@ -1701,19 +1701,19 @@
         <v>600834</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>580421</v>
+        <v>579570</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>622300</v>
+        <v>622945</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7237850921757882</v>
+        <v>0.7237850921757883</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6991959162344246</v>
+        <v>0.6981704851583541</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7496443062753415</v>
+        <v>0.7504218838839316</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1388</v>
@@ -1722,19 +1722,19 @@
         <v>1090375</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1059731</v>
+        <v>1063069</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1117333</v>
+        <v>1119450</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7805068001117708</v>
+        <v>0.7805068001117706</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7585711611797151</v>
+        <v>0.7609606373931672</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7998035345571066</v>
+        <v>0.8013190795362064</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>20241</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10691</v>
+        <v>10544</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35567</v>
+        <v>36768</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08532216486791316</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04506730730394469</v>
+        <v>0.04444614702145107</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1499281816399368</v>
+        <v>0.1549889365835992</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>293</v>
@@ -1847,19 +1847,19 @@
         <v>191892</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>169845</v>
+        <v>167271</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>213490</v>
+        <v>213866</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2274839357715942</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2013484710539919</v>
+        <v>0.1982963069073778</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2530879539846725</v>
+        <v>0.2535333445616128</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>306</v>
@@ -1868,19 +1868,19 @@
         <v>212133</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>189521</v>
+        <v>186184</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>241196</v>
+        <v>235876</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1962795458034446</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1753575655995979</v>
+        <v>0.1722700271570143</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2231705600158841</v>
+        <v>0.2182484385969256</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>216987</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>201661</v>
+        <v>200460</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>226537</v>
+        <v>226684</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9146778351320869</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8500718183600635</v>
+        <v>0.8450110634164009</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9549326926960552</v>
+        <v>0.9555538529785491</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>865</v>
@@ -1918,19 +1918,19 @@
         <v>651648</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>630050</v>
+        <v>629674</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>673695</v>
+        <v>676269</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7725160642284057</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7469120460153275</v>
+        <v>0.7464666554383872</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7986515289460081</v>
+        <v>0.8017036930926222</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>964</v>
@@ -1939,19 +1939,19 @@
         <v>868635</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>839572</v>
+        <v>844892</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>891247</v>
+        <v>894584</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8037204541965555</v>
+        <v>0.8037204541965554</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7768294399841157</v>
+        <v>0.7817515614030743</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.824642434400402</v>
+        <v>0.8277299728429857</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>476206</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>436085</v>
+        <v>435822</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>520322</v>
+        <v>521262</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1384549801364325</v>
+        <v>0.1384549801364324</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1267899902234547</v>
+        <v>0.1267134153887286</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1512814439439777</v>
+        <v>0.1515547162997702</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1232</v>
@@ -2064,19 +2064,19 @@
         <v>824748</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>781891</v>
+        <v>777409</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>869295</v>
+        <v>867313</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.226983613107052</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2151886987610233</v>
+        <v>0.2139550829962182</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2392434576513677</v>
+        <v>0.238697988740569</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1740</v>
@@ -2085,19 +2085,19 @@
         <v>1300954</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1238758</v>
+        <v>1238386</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1363149</v>
+        <v>1356075</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1839339433575108</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1751404236485674</v>
+        <v>0.1750877682292981</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1927272979916332</v>
+        <v>0.1917271563350522</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>2963222</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2919106</v>
+        <v>2918166</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3003343</v>
+        <v>3003606</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8615450198635676</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8487185560560222</v>
+        <v>0.8484452837002298</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8732100097765452</v>
+        <v>0.8732865846112715</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4009</v>
@@ -2135,19 +2135,19 @@
         <v>2808767</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2764220</v>
+        <v>2766202</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2851624</v>
+        <v>2856106</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7730163868929478</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7607565423486323</v>
+        <v>0.7613020112594311</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7848113012389767</v>
+        <v>0.7860449170037819</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6798</v>
@@ -2156,19 +2156,19 @@
         <v>5771989</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5709794</v>
+        <v>5716868</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5834185</v>
+        <v>5834557</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8160660566424893</v>
+        <v>0.8160660566424892</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8072727020083669</v>
+        <v>0.808272843664948</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8248595763514325</v>
+        <v>0.8249122317707021</v>
       </c>
     </row>
     <row r="24">
